--- a/appdata/library/tracks/Spa-Francorchamps.xlsx
+++ b/appdata/library/tracks/Spa-Francorchamps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\OpenLAP-Lap-Time-Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\USM-Lap\appdata\library\tracks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9707AA-4C4C-4F3F-AF6B-96365241779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6694633C-2069-44AE-B97E-F2FAB9451275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -647,13 +647,13 @@
       <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -669,7 +669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -701,7 +701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -719,17 +719,17 @@
   <dimension ref="A1:C252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1985.6179999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>1449.88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
         <v>1264.1279999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>850.86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
         <v>36.073</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22.266999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +850,7 @@
         <v>17.291</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -861,7 +861,7 @@
         <v>18.504999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -872,7 +872,7 @@
         <v>23.891999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -883,7 +883,7 @@
         <v>57.51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -894,7 +894,7 @@
         <v>78.834000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>69.888999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
         <v>158.251</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -927,7 +927,7 @@
         <v>400.48899999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -938,7 +938,7 @@
         <v>1362.181</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -949,7 +949,7 @@
         <v>822.76800000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -960,7 +960,7 @@
         <v>657.49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +971,7 @@
         <v>712.85299999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1153.509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1066.1569999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>476.87599999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>442.57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>502.18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>413.10399999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>368.488</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>480.66500000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>1784.7190000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>928.98099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>2</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>335.666</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>513.14300000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>782.02499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>173.31800000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>114.88200000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>242.88900000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>277.96600000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>350.31299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>1993.682</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>2</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>177.71600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>251.261</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>725.64400000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>896.69100000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>2</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>948.89200000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>1715.943</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>1456.5909999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1152.5540000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1215.682</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>979.83199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>674.89099999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>565.63599999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>869.44200000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>881.78800000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1394.143</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>417.62400000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>66.278000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>57.262999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>62.170999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>63.662999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>88.018000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>364.34699999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>2</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>80.323999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>79.489000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>76.897000000000006</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>109.624</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>110.18600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>105.925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>175.65</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>108.991</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>68.540000000000006</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>68.778000000000006</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>98.256</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>77.730999999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>105.28100000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>174.857</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>148.54</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>442.19499999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>964.76800000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1540.2909999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>712.76499999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>130.50299999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>49.384</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>46.734000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>49.158999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>51.267000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>51.256</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>54.046999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>56.052</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>53.661000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>56.847999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>63.290999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>100.29300000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>117.517</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>803.02599999999995</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>658.66</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>553.68499999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>153.83199999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>92.816000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>72.793000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
         <v>2</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>70.314999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>75.373000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>88.19</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>111.996</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
         <v>2</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>127.82</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>803.822</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>398.11799999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>673.85400000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>1025.0160000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>1175.7059999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1127.6420000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1169.1559999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>1356.097</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1237.97</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>1819.53</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1312.425</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>174.733</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>135.459</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>142.53299999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>148.179</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>147.602</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
         <v>2</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>131.14099999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>114.749</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>118.36499999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
         <v>2</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>114.629</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
         <v>2</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>384.3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
         <v>2</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>244.041</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>262.45</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>173.56299999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>158.828</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>172.83500000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>215.309</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
         <v>2</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>212.50299999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>195.49299999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
         <v>2</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>268.71800000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1196.3889999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>837.57899999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1345.884</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>1821.2270000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>854.03</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>279.13900000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>95.576999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>85.248000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>79.688999999999993</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>78.41</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>89.540999999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>73.173000000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>81.480999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>139.36500000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>313.22000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
         <v>2</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>130.631</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
         <v>2</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>99.629000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
         <v>2</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>89.304000000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>89.742000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
         <v>2</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>91.228999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
         <v>2</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>98.918999999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
         <v>2</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>117.985</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
         <v>2</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>161.95500000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
         <v>2</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>436.72399999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>863.66899999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>555.89200000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>584.47699999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>761.97799999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>307.64499999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>98.593999999999994</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>80.260999999999996</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>68.959000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>71.191000000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>70.576999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>81.781999999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>93.867000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>291.416</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>987.48199999999997</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1018.453</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>234.214</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>195.15700000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>144.041</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>129.83000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>134.964</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>115.438</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>118.10899999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>155.227</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>285.34800000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>682.995</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>1086.6189999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>617.82799999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>562.45299999999997</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>613.20100000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>619.24</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>633.34100000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>594.95399999999995</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>635.14300000000003</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>527.35500000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>520.16700000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>468.63799999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>672.48400000000004</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
         <v>2</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1818.1130000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>940.83900000000006</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
         <v>2</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>622.548</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>487.8</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
         <v>2</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>356.42899999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
         <v>2</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>366.12</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
         <v>2</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>280.43099999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>300.54599999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
         <v>2</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>515.42700000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>2</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>696.51800000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
         <v>0</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
         <v>2</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>425.98500000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
         <v>2</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>244.79300000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
         <v>2</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>206.89599999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>195.459</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
         <v>2</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>230.52699999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>294.74599999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
         <v>2</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>395.75400000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
         <v>2</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>1773.729</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>846.15099999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>566.423</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>555.91399999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>977.78200000000004</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>1957.018</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1297.462</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>794.678</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>1057.134</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>284.43400000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>34.945999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>29.198</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>39.850999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>38.387</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>28.907</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>50.296999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>33.289000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
         <v>2</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>27.74</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
         <v>2</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>30.562999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
         <v>2</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>26.469000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>35.954999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>46.063000000000002</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>52.392000000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
         <v>2</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>270.072</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>279.827</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>419.07499999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
         <v>0</v>
       </c>
@@ -3517,13 +3517,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.15625" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>55</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>417.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>112</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>418.6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>167</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>420.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>206</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>422.1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>232</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>423.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>251</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>423.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>268</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>290</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>422.4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>317</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>351</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>418.9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>391</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>416.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>435</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>413.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>484</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>536</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>406.9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>592</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>404.1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>650</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>711</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>397.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>774</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>394.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>838</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>392.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>905</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>389.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>972</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>390.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1036</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>399.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1100</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>408.6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1163</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>413.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1227</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>416.8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>1293</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>419.7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1358</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>422.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1425</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>425.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1493</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>428.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1561</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>431.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1630</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>434.2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>1700</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>437.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1770</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>440.3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1840</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>443.6</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1911</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>446.9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1982</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>450.2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>2053</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>2124</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>2183</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>2228</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>2264</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>463.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>2296</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>2330</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>2362</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>466.6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>2393</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>467.2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>2429</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>467.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>2467</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>467.9</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>2505</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>467.7</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>2545</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>467.7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>2588</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>467.3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>2635</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>2686</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>464.1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>2740</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>461.8</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>2790</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>2828</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>456.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>2859</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>2886</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>451.9</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>2911</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>2938</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>447.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>2968</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>445.8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>3004</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>443.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>3044</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>440.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>3084</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>3120</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>435.2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>3155</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>432.8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>3193</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>430.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>3236</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>427.6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>3284</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>424.3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>3335</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>420.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>3389</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>3447</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>413.1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>3507</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>3567</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>404.8</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>3618</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>3664</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>397.4</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>3710</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>394.3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>3758</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>391.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>3809</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>388.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>3863</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>384.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>3919</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>381.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>3978</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>379.8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>4038</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>378.2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>4100</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>4164</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>376.8</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>4226</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>377.3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>4274</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>377.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>4312</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>377.9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>4347</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>4381</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>377.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>4417</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>4455</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>377.8</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>4491</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>377.4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>4528</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>377.2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>4569</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>4613</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>376.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>4661</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>375.3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>4707</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>374.3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>4743</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>373.1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>4775</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>371.7</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>4807</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>370.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>4844</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>369.3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>4885</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>4930</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>367.2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>4978</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>366.7</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>5027</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>5078</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>368.2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>5131</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>369.5</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>5186</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>5243</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>372.7</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>5302</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>374.7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>5363</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>376.5</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>5425</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>378.3</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>5489</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>380.3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>5554</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>382.2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>5620</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>383.6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>5688</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>384.8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>5756</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>386.2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>5825</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>388.4</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>5894</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>390.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>5964</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>392.4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>6033</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>393.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>6102</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>6171</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>395.9</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>6240</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>397.5</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>6310</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>398.9</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>6381</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>401.3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>6445</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>403.7</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>6493</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>405.6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>6526</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>407.1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>6549</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>408.4</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>6568</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>409.3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>6587</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>409.8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>6606</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>409.9</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>6624</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>410.6</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>6647</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>411.8</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>6676</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>412.7</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>6711</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>413.5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>6750</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>414.1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>6794</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>414.8</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>6842</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>415.5</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>6892</v>
       </c>
@@ -4671,16 +4671,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6">
         <v>6900</v>
       </c>
@@ -4713,17 +4713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
         <v>0</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10">
         <v>6900</v>
       </c>
@@ -4763,12 +4763,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2100</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4880</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>7000</v>
       </c>
